--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_2.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>-51786608.799999997</v>
+        <v>-517866088</v>
       </c>
       <c r="D16" s="1">
         <v>-50601311.959999993</v>
@@ -1391,7 +1391,8 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>1515501800</v>
+        <f>SUM(C12:C17)</f>
+        <v>1049422320.9799999</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D12:D17)</f>
@@ -1432,7 +1433,9 @@
       <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>-392700000</v>
+      </c>
       <c r="D19" s="1">
         <v>-383099999.99999988</v>
       </c>
@@ -1502,7 +1505,10 @@
       <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="33">
+        <f>SUM(C18:C20)</f>
+        <v>658010885.25999987</v>
+      </c>
       <c r="D21" s="33">
         <f>SUM(D18:D20)</f>
         <v>1096925174.6300049</v>
@@ -1542,7 +1548,9 @@
       <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="32">
+        <v>-33376095</v>
+      </c>
       <c r="D22" s="32">
         <v>-32201025</v>
       </c>
@@ -1578,7 +1586,7 @@
       </c>
       <c r="C23" s="33">
         <f>SUM(C21:C22)</f>
-        <v>0</v>
+        <v>624634790.25999987</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
@@ -1624,9 +1632,9 @@
       <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5" t="e">
+      <c r="C25" s="5">
         <f>C23/C26</f>
-        <v>#VALUE!</v>
+        <v>0.62253782079115272</v>
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
@@ -1665,8 +1673,8 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
+      <c r="C26" s="1">
+        <v>1003368421</v>
       </c>
       <c r="D26" s="1">
         <v>1009991810.1331247</v>
@@ -1719,9 +1727,9 @@
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="16" t="e">
+      <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>#VALUE!</v>
+        <v>0.69337643330253695</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
@@ -1755,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>0.92707873013788666</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
